--- a/k8s/NetApp-LOD/K8s.xlsx
+++ b/k8s/NetApp-LOD/K8s.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418AB75B-AA1D-6F40-8C4B-6C0683771C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526D0D7-8242-074C-9783-5EB32FE95E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11720" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="app_github_repo">Sheet2!$B$1</definedName>
-    <definedName name="external_loadbalancer_namespace">Sheet2!$B$3</definedName>
+    <definedName name="dr_app_namesace">Sheet2!$B$3</definedName>
+    <definedName name="external_loadbalancer_namespace">Sheet2!$B$4</definedName>
     <definedName name="prd_app_namesace">Sheet2!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Step</t>
   </si>
@@ -138,9 +139,6 @@
   </si>
   <si>
     <t>Verify the pod is running as part of the database deployment</t>
-  </si>
-  <si>
-    <t>App Namespace</t>
   </si>
   <si>
     <t>Loadbalancer Namespace</t>
@@ -218,6 +216,18 @@
   </si>
   <si>
     <t>echo "192.168.0.215 demo.com " &gt;&gt; /etc/hosts</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>App Namespace (PRD)</t>
+  </si>
+  <si>
+    <t>App Namespace (DR)</t>
+  </si>
+  <si>
+    <t>todoapp-dr</t>
   </si>
 </sst>
 </file>
@@ -391,32 +401,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -737,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB6269-A009-C44B-BEE8-643A96FAB76F}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,15 +762,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -768,412 +778,451 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C8" s="5" t="str">
         <f>"git clone "&amp;app_github_repo</f>
         <v>git clone https://github.com/mrunal-modi/MERN-ToDoApp</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C9" s="5" t="str">
         <f>"kubectl create ns "&amp;prd_app_namesace</f>
         <v>kubectl create ns todoapp-prd</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="13" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="11" t="str">
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="str">
         <f>"kubectl apply -f database-pvc.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-pvc.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11" t="str">
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10" t="str">
         <f>"kubectl create -f database-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl create -f database-deployment.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11" t="str">
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="str">
         <f>"kubectl apply -f database-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-service.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C17" s="10" t="str">
         <f>"kubectl get pvc -n "&amp;prd_app_namesace</f>
         <v>kubectl get pvc -n todoapp-prd</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C18" s="10" t="str">
         <f>"kubectl describe pvc -n "&amp;prd_app_namesace</f>
         <v>kubectl describe pvc -n todoapp-prd</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C19" s="10" t="str">
         <f>"kubectl get pods -n "&amp;prd_app_namesace</f>
         <v>kubectl get pods -n todoapp-prd</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="5" t="str">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="str">
         <f>"kubectl apply -f backend-env-configmap.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-env-configmap.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="11" t="str">
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="10" t="str">
         <f>"kubectl apply -f backend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-deployment.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>3</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="11" t="str">
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="10" t="str">
         <f>"kubectl apply -f backend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-service.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="5" t="str">
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="str">
         <f>"kubectl apply -f frontend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-deployment.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="11" t="str">
+      <c r="B28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="str">
         <f>"kubectl apply -f frontend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-service.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>1</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C32" s="5" t="str">
         <f>"kubectl get configmaps config -n "&amp;external_loadbalancer_namespace&amp;" -o yaml"</f>
         <v>kubectl get configmaps config -n metallb-system -o yaml</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>2</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>3</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>5</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>6</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>7</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>8</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>8</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="str">
+      <c r="C39" s="5" t="str">
         <f>"kubectl apply -f ingress.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f ingress.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>9</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="5" t="str">
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5" t="str">
         <f>"kubectl get ingress 3tier-ingress -n "&amp;prd_app_namesace&amp;" -o yaml"</f>
         <v>kubectl get ingress 3tier-ingress -n todoapp-prd -o yaml</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>10</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="5" t="str">
+      <c r="B41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="str">
         <f>"kubectl describe ingress 3tier-ingress -n "&amp;prd_app_namesace</f>
         <v>kubectl describe ingress 3tier-ingress -n todoapp-prd</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>11</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="str">
+        <f>"kubectl create ns "&amp;dr_app_namesace</f>
+        <v>kubectl create ns todoapp-dr</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A24:C24"/>
+  <mergeCells count="6">
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{0A850F99-3B3A-1E40-A947-772D6F4D5571}"/>

--- a/k8s/NetApp-LOD/K8s.xlsx
+++ b/k8s/NetApp-LOD/K8s.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526D0D7-8242-074C-9783-5EB32FE95E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A1786-CB3A-814A-AD20-0AED40B51353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="DockerHub" sheetId="3" r:id="rId1"/>
+    <sheet name="k8s" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="app_github_repo">Sheet2!$B$1</definedName>
-    <definedName name="dr_app_namesace">Sheet2!$B$3</definedName>
-    <definedName name="external_loadbalancer_namespace">Sheet2!$B$4</definedName>
-    <definedName name="prd_app_namesace">Sheet2!$B$2</definedName>
+    <definedName name="app_github_repo">k8s!$B$1</definedName>
+    <definedName name="dr_app_namesace">k8s!$B$3</definedName>
+    <definedName name="external_loadbalancer_namespace">k8s!$B$4</definedName>
+    <definedName name="prd_app_namesace">k8s!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Step</t>
   </si>
@@ -228,6 +229,45 @@
   </si>
   <si>
     <t>todoapp-dr</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>local-image:tagname</t>
+  </si>
+  <si>
+    <t>new-repo:tagname</t>
+  </si>
+  <si>
+    <t>Login to Docker HUB using CLI</t>
+  </si>
+  <si>
+    <t>docker login</t>
+  </si>
+  <si>
+    <t>Create repo on docker HUB</t>
+  </si>
+  <si>
+    <t>frontend:latest</t>
+  </si>
+  <si>
+    <t>mmodi/frontend:latest</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/repositories/mmodi</t>
+  </si>
+  <si>
+    <t>Tag Image</t>
+  </si>
+  <si>
+    <t>Push Image</t>
+  </si>
+  <si>
+    <t>backend:latest</t>
+  </si>
+  <si>
+    <t>mmodi/backend:latest</t>
   </si>
 </sst>
 </file>
@@ -303,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -375,6 +421,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -384,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -428,6 +489,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -746,10 +814,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680620-5D23-E942-99A4-0758EF20CA80}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="str">
+        <f>"docker tag "&amp;B4&amp;" "&amp;C4</f>
+        <v>docker tag frontend:latest mmodi/frontend:latest</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="str">
+        <f>"docker push "&amp;C4</f>
+        <v>docker push mmodi/frontend:latest</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="str">
+        <f>"docker tag "&amp;B8&amp;" "&amp;C8</f>
+        <v>docker tag backend:latest mmodi/backend:latest</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="str">
+        <f>"docker push "&amp;C8</f>
+        <v>docker push mmodi/backend:latest</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{4E721826-8754-994A-8118-A95F5A4C67C9}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{2D8221D0-4810-1142-A330-D9C71F8CEEF2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB6269-A009-C44B-BEE8-643A96FAB76F}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>7</v>
       </c>

--- a/k8s/NetApp-LOD/K8s.xlsx
+++ b/k8s/NetApp-LOD/K8s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A1786-CB3A-814A-AD20-0AED40B51353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C192F85C-BD19-2445-9024-16613F9CFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="DockerHub" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>Step</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>mmodi/backend:latest</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>Build image locally</t>
+  </si>
+  <si>
+    <t>cd frontend; make build</t>
+  </si>
+  <si>
+    <t>cd backend; make build</t>
   </si>
 </sst>
 </file>
@@ -486,16 +501,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -815,9 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680620-5D23-E942-99A4-0758EF20CA80}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -828,16 +845,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -845,92 +862,116 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="19" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="str">
-        <f>"docker tag "&amp;B4&amp;" "&amp;C4</f>
-        <v>docker tag frontend:latest mmodi/frontend:latest</v>
+        <v>53</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="17" t="str">
-        <f>"docker push "&amp;C4</f>
-        <v>docker push mmodi/frontend:latest</v>
+      <c r="D6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16" t="str">
+        <f>"docker tag "&amp;B5&amp;" "&amp;C5</f>
+        <v>docker tag frontend:latest mmodi/frontend:latest</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="str">
-        <f>"docker tag "&amp;B8&amp;" "&amp;C8</f>
-        <v>docker tag backend:latest mmodi/backend:latest</v>
+        <v>58</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16" t="str">
+        <f>"docker push "&amp;C5</f>
+        <v>docker push mmodi/frontend:latest</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="str">
+        <f>"docker tag "&amp;B10&amp;" "&amp;C10</f>
+        <v>docker tag backend:latest mmodi/backend:latest</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="str">
-        <f>"docker push "&amp;C8</f>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="str">
+        <f>"docker push "&amp;C10</f>
         <v>docker push mmodi/backend:latest</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{4E721826-8754-994A-8118-A95F5A4C67C9}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{2D8221D0-4810-1142-A330-D9C71F8CEEF2}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BBB13DA5-54E7-294C-B578-2C747004F954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -984,11 +1025,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1026,11 +1067,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1138,11 +1179,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -1192,11 +1233,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1234,11 +1275,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1377,11 +1418,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">

--- a/k8s/NetApp-LOD/K8s.xlsx
+++ b/k8s/NetApp-LOD/K8s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C192F85C-BD19-2445-9024-16613F9CFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC9A085-36A1-FB4F-AAD9-A751291C5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
+    <workbookView xWindow="-10860" yWindow="-28240" windowWidth="50240" windowHeight="28160" activeTab="1" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="DockerHub" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Step</t>
   </si>
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680620-5D23-E942-99A4-0758EF20CA80}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -979,10 +979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB6269-A009-C44B-BEE8-643A96FAB76F}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,202 +1255,214 @@
         <v>1</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f>"kubectl apply -f frontend-env-configmap.yaml -n "&amp;prd_app_namesace</f>
+        <v>kubectl apply -f frontend-env-configmap.yaml -n todoapp-prd</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>2</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C28" s="5" t="str">
         <f>"kubectl apply -f frontend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-deployment.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>2</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C29" s="10" t="str">
         <f>"kubectl apply -f frontend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-service.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>1</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C33" s="5" t="str">
         <f>"kubectl get configmaps config -n "&amp;external_loadbalancer_namespace&amp;" -o yaml"</f>
         <v>kubectl get configmaps config -n metallb-system -o yaml</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>2</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
+        <v>4</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>5</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>6</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+    <row r="39" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>7</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>8</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C40" s="5" t="str">
         <f>"kubectl apply -f ingress.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f ingress.yaml -n todoapp-prd</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>9</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="5" t="str">
+      <c r="C41" s="5" t="str">
         <f>"kubectl get ingress 3tier-ingress -n "&amp;prd_app_namesace&amp;" -o yaml"</f>
         <v>kubectl get ingress 3tier-ingress -n todoapp-prd -o yaml</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>10</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="str">
+      <c r="C42" s="5" t="str">
         <f>"kubectl describe ingress 3tier-ingress -n "&amp;prd_app_namesace</f>
         <v>kubectl describe ingress 3tier-ingress -n todoapp-prd</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>11</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <v>1</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C47" s="5" t="str">
         <f>"kubectl create ns "&amp;dr_app_namesace</f>
         <v>kubectl create ns todoapp-dr</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A20:C20"/>

--- a/k8s/NetApp-LOD/K8s.xlsx
+++ b/k8s/NetApp-LOD/K8s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrunalmodi/Documents/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC9A085-36A1-FB4F-AAD9-A751291C5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A940B8-9EE4-7840-BDB6-95A9A6206733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10860" yWindow="-28240" windowWidth="50240" windowHeight="28160" activeTab="1" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="DockerHub" sheetId="3" r:id="rId1"/>
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680620-5D23-E942-99A4-0758EF20CA80}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB6269-A009-C44B-BEE8-643A96FAB76F}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
